--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/NORTH_DAKOTA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/NORTH_DAKOTA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C8">
@@ -607,7 +607,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -778,7 +778,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C29">
@@ -861,7 +861,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C35">
@@ -970,7 +970,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C43">
@@ -983,7 +983,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C44">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C46">
@@ -1079,7 +1079,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C51">
@@ -1136,7 +1136,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C55">
@@ -1307,7 +1307,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C67">
@@ -1609,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="D87">
-        <v>0.09090909090909091</v>
+        <v>0.09090909090909093</v>
       </c>
     </row>
     <row r="88">
@@ -1685,7 +1685,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C93">
@@ -1776,76 +1776,6 @@
       </c>
       <c r="D99">
         <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/NORTH_DAKOTA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/NORTH_DAKOTA_2016.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -522,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -623,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tepetlixpa</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Zapotlán Del Rey</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1121,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1134,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -1147,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1178,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1191,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Mazatepec</t>
@@ -1204,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -1217,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1248,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1279,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Reyes Etla</t>
@@ -1292,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -1305,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Teotitlán De Flores Magón</t>
@@ -1318,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1349,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -1362,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1375,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1406,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1437,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1468,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1499,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1530,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Teapa</t>
@@ -1543,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1574,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Padilla</t>
@@ -1587,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -1600,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1631,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -1644,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1657,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -1670,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1683,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Vega De Alatorre</t>
@@ -1696,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1709,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1740,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -1753,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
